--- a/sovi_peru/data_information_original.xlsx
+++ b/sovi_peru/data_information_original.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dlee/data/repo/Peru-Health-Flood/sovi_peru/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2BF90AD6-977F-2945-904A-BDF1CAC14C1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A24D81C3-B42D-E641-A626-599CE8417750}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="19860" activeTab="3" xr2:uid="{409FFE72-8E99-C143-BB4E-3E3BA8AC1FDD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19860" activeTab="3" xr2:uid="{409FFE72-8E99-C143-BB4E-3E3BA8AC1FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="vuln_variables" sheetId="4" r:id="rId1"/>
     <sheet name="selected" sheetId="5" r:id="rId2"/>
     <sheet name="sovi" sheetId="7" r:id="rId3"/>
-    <sheet name="510 Dashboards" sheetId="6" r:id="rId4"/>
-    <sheet name="list_of_variable" sheetId="1" r:id="rId5"/>
-    <sheet name="label_value_spn_eng" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId4"/>
+    <sheet name="510 Dashboards" sheetId="6" r:id="rId5"/>
+    <sheet name="list_of_variable" sheetId="1" r:id="rId6"/>
+    <sheet name="label_value_spn_eng" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4933" uniqueCount="2575">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5035" uniqueCount="2624">
   <si>
     <t>#</t>
   </si>
@@ -7764,16 +7765,164 @@
   </si>
   <si>
     <t>QNRRES_ACS</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Children under 5 years (%)</t>
+  </si>
+  <si>
+    <t>Elder population (65+ years) (%)</t>
+  </si>
+  <si>
+    <t>PFEMALE</t>
+  </si>
+  <si>
+    <t>PDISABL</t>
+  </si>
+  <si>
+    <t>PMEDINS</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>PNOSWALL</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>PNOELEC</t>
+  </si>
+  <si>
+    <t>PNOSEWAGE</t>
+  </si>
+  <si>
+    <t>PLITERACY</t>
+  </si>
+  <si>
+    <t>PNOPRIEDU</t>
+  </si>
+  <si>
+    <t>PNOCOLLEGE</t>
+  </si>
+  <si>
+    <t>PRENT</t>
+  </si>
+  <si>
+    <t>ANUMBFAMILY</t>
+  </si>
+  <si>
+    <t>PAUTOMOBILE</t>
+  </si>
+  <si>
+    <t>Pop with disability (%)</t>
+  </si>
+  <si>
+    <t>Pop females (%)</t>
+  </si>
+  <si>
+    <t>Pop with health insurance (%)</t>
+  </si>
+  <si>
+    <t>Pop cannot read and write (%)</t>
+  </si>
+  <si>
+    <t>Pop don't complete primary education (%)</t>
+  </si>
+  <si>
+    <t>Pop dont complete college degree (%)</t>
+  </si>
+  <si>
+    <t>Rented houses (%)</t>
+  </si>
+  <si>
+    <t>Averaged numer of people in family</t>
+  </si>
+  <si>
+    <t>Households with cell phone or landline (%)</t>
+  </si>
+  <si>
+    <t>Households with automobiles (%)</t>
+  </si>
+  <si>
+    <t>Households without sewage infrastructure (%)</t>
+  </si>
+  <si>
+    <t>Households without electricity (%)</t>
+  </si>
+  <si>
+    <t>Households without public water supply (%)</t>
+  </si>
+  <si>
+    <t>Households without strong walls (%)</t>
+  </si>
+  <si>
+    <t>[[ 0.31298509]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.25260141]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.04134773]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.2237688 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.09388598]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.22254948]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.1976372 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.20885664]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.21112176]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.19382259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.18951117]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.1903221 ]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [-0.14056831]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.22333434]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.16156088]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ 0.15069151]]</t>
+  </si>
+  <si>
+    <t>Net contribution weights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -7832,6 +7981,19 @@
     <font>
       <sz val="12"/>
       <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -7934,7 +8096,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8031,6 +8193,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
@@ -8045,11 +8213,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8378,12 +8555,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9">
@@ -8948,20 +9125,20 @@
   <dimension ref="B2:H63"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6"/>
-    <col min="2" max="2" width="12.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="46.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6"/>
+    <col min="2" max="2" width="12.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="20" customWidth="1"/>
     <col min="7" max="7" width="41" style="20" customWidth="1"/>
     <col min="8" max="8" width="27" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="10.6640625" style="6"/>
+    <col min="9" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -8990,14 +9167,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="41" customHeight="1">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="40" t="s">
         <v>2510</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="21" t="s">
@@ -9020,7 +9197,7 @@
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="35" t="s">
         <v>1294</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -9040,7 +9217,7 @@
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="40"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="21"/>
       <c r="D12" s="23" t="s">
         <v>1180</v>
@@ -9056,7 +9233,7 @@
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="40"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="21" t="s">
         <v>1182</v>
       </c>
@@ -9074,7 +9251,7 @@
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="40"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="21"/>
       <c r="D14" s="23" t="s">
         <v>1183</v>
@@ -9090,7 +9267,7 @@
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="40"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="21"/>
       <c r="D15" s="23" t="s">
         <v>1184</v>
@@ -9106,7 +9283,7 @@
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="40"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="21"/>
       <c r="D16" s="23" t="s">
         <v>1186</v>
@@ -9122,7 +9299,7 @@
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="40"/>
+      <c r="B17" s="35"/>
       <c r="C17" s="21" t="s">
         <v>1190</v>
       </c>
@@ -9140,7 +9317,7 @@
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="40"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="21"/>
       <c r="D18" s="23" t="s">
         <v>1269</v>
@@ -9156,7 +9333,7 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="40"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="21"/>
       <c r="D19" s="23" t="s">
         <v>1193</v>
@@ -9172,7 +9349,7 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="40"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="21"/>
       <c r="D20" s="25" t="s">
         <v>1282</v>
@@ -9188,7 +9365,7 @@
       </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="40"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="21"/>
       <c r="D21" s="25" t="s">
         <v>1283</v>
@@ -9202,7 +9379,7 @@
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="40"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="21" t="s">
         <v>1200</v>
       </c>
@@ -9220,7 +9397,7 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="40"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="21" t="s">
         <v>1205</v>
       </c>
@@ -9238,7 +9415,7 @@
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="40"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="21" t="s">
         <v>1215</v>
       </c>
@@ -9256,7 +9433,7 @@
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="40"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="21"/>
       <c r="D25" s="25" t="s">
         <v>1285</v>
@@ -9267,12 +9444,12 @@
       <c r="F25" s="26" t="s">
         <v>2507</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="35" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="40"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="21"/>
       <c r="D26" s="25" t="s">
         <v>1284</v>
@@ -9283,10 +9460,10 @@
       <c r="F26" s="26" t="s">
         <v>2507</v>
       </c>
-      <c r="G26" s="40"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="40"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="21"/>
       <c r="D27" s="25" t="s">
         <v>1289</v>
@@ -9297,10 +9474,10 @@
       <c r="F27" s="26" t="s">
         <v>2507</v>
       </c>
-      <c r="G27" s="40"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="40"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="21"/>
       <c r="D28" s="25" t="s">
         <v>1298</v>
@@ -9316,7 +9493,7 @@
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="40"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="21" t="s">
         <v>1243</v>
       </c>
@@ -9334,7 +9511,7 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="40"/>
+      <c r="B30" s="35"/>
       <c r="C30" s="21"/>
       <c r="D30" s="23" t="s">
         <v>1248</v>
@@ -9350,7 +9527,7 @@
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="40"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="21"/>
       <c r="D31" s="23" t="s">
         <v>1250</v>
@@ -9366,7 +9543,7 @@
       </c>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="40"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="21"/>
       <c r="D32" s="23" t="s">
         <v>1255</v>
@@ -9382,7 +9559,7 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="35" t="s">
         <v>1295</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -9402,7 +9579,7 @@
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="40"/>
+      <c r="B34" s="35"/>
       <c r="C34" s="21"/>
       <c r="D34" s="25" t="s">
         <v>1279</v>
@@ -9418,7 +9595,7 @@
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="40"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="21" t="s">
         <v>1275</v>
       </c>
@@ -9436,7 +9613,7 @@
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="40"/>
+      <c r="B36" s="35"/>
       <c r="C36" s="21"/>
       <c r="D36" s="25" t="s">
         <v>1276</v>
@@ -9457,14 +9634,14 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="55" customHeight="1">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="38" t="s">
         <v>2509</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="34" t="s">
@@ -9475,14 +9652,14 @@
       <c r="B42" s="26" t="s">
         <v>1272</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="37" t="s">
         <v>2501</v>
       </c>
-      <c r="D42" s="40"/>
-      <c r="E42" s="35" t="s">
+      <c r="D42" s="35"/>
+      <c r="E42" s="37" t="s">
         <v>1176</v>
       </c>
-      <c r="F42" s="35"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="26" t="s">
         <v>1273</v>
       </c>
@@ -9491,17 +9668,17 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="33" customHeight="1">
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="37" t="s">
         <v>2456</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="37" t="s">
         <v>2444</v>
       </c>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="36" t="s">
         <v>2489</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="26" t="s">
         <v>2481</v>
       </c>
@@ -9510,15 +9687,15 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="61" customHeight="1">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35" t="s">
+      <c r="B44" s="37"/>
+      <c r="C44" s="37" t="s">
         <v>2445</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41" t="s">
+      <c r="D44" s="35"/>
+      <c r="E44" s="36" t="s">
         <v>2482</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="26" t="s">
         <v>2485</v>
       </c>
@@ -9527,15 +9704,15 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="59" customHeight="1">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="37" t="s">
         <v>2446</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="41" t="s">
+      <c r="D45" s="35"/>
+      <c r="E45" s="36" t="s">
         <v>2490</v>
       </c>
-      <c r="F45" s="41"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="26" t="s">
         <v>2485</v>
       </c>
@@ -9544,15 +9721,15 @@
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37" t="s">
         <v>2447</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="36" t="s">
         <v>2487</v>
       </c>
-      <c r="F46" s="41"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="26" t="s">
         <v>2485</v>
       </c>
@@ -9561,15 +9738,15 @@
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="35"/>
-      <c r="C47" s="35" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="37" t="s">
         <v>2448</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="36" t="s">
         <v>2484</v>
       </c>
-      <c r="F47" s="41"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="26" t="s">
         <v>2485</v>
       </c>
@@ -9578,15 +9755,15 @@
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="35"/>
-      <c r="C48" s="35" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="37" t="s">
         <v>2452</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="41" t="s">
+      <c r="D48" s="35"/>
+      <c r="E48" s="36" t="s">
         <v>2480</v>
       </c>
-      <c r="F48" s="41"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="26" t="s">
         <v>2481</v>
       </c>
@@ -9595,17 +9772,17 @@
       </c>
     </row>
     <row r="49" spans="2:8">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="37" t="s">
         <v>2457</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="37" t="s">
         <v>2459</v>
       </c>
-      <c r="D49" s="40"/>
-      <c r="E49" s="35" t="s">
+      <c r="D49" s="35"/>
+      <c r="E49" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F49" s="35"/>
+      <c r="F49" s="37"/>
       <c r="G49" s="26" t="s">
         <v>2479</v>
       </c>
@@ -9614,15 +9791,15 @@
       </c>
     </row>
     <row r="50" spans="2:8">
-      <c r="B50" s="35"/>
-      <c r="C50" s="35" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="37" t="s">
         <v>2449</v>
       </c>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="36" t="s">
         <v>2468</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="36"/>
       <c r="G50" s="26" t="s">
         <v>2469</v>
       </c>
@@ -9631,15 +9808,15 @@
       </c>
     </row>
     <row r="51" spans="2:8">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="37" t="s">
         <v>2450</v>
       </c>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41" t="s">
+      <c r="D51" s="35"/>
+      <c r="E51" s="36" t="s">
         <v>2470</v>
       </c>
-      <c r="F51" s="41"/>
+      <c r="F51" s="36"/>
       <c r="G51" s="26" t="s">
         <v>2471</v>
       </c>
@@ -9648,15 +9825,15 @@
       </c>
     </row>
     <row r="52" spans="2:8">
-      <c r="B52" s="35"/>
-      <c r="C52" s="35" t="s">
+      <c r="B52" s="37"/>
+      <c r="C52" s="37" t="s">
         <v>2495</v>
       </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="36" t="s">
         <v>2474</v>
       </c>
-      <c r="F52" s="41"/>
+      <c r="F52" s="36"/>
       <c r="G52" s="26" t="s">
         <v>2475</v>
       </c>
@@ -9665,15 +9842,15 @@
       </c>
     </row>
     <row r="53" spans="2:8">
-      <c r="B53" s="35"/>
-      <c r="C53" s="35" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="37" t="s">
         <v>2451</v>
       </c>
-      <c r="D53" s="40"/>
-      <c r="E53" s="41" t="s">
+      <c r="D53" s="35"/>
+      <c r="E53" s="36" t="s">
         <v>2472</v>
       </c>
-      <c r="F53" s="41"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="26" t="s">
         <v>2473</v>
       </c>
@@ -9682,15 +9859,15 @@
       </c>
     </row>
     <row r="54" spans="2:8">
-      <c r="B54" s="35"/>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="37"/>
+      <c r="C54" s="37" t="s">
         <v>2454</v>
       </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41" t="s">
+      <c r="D54" s="35"/>
+      <c r="E54" s="36" t="s">
         <v>2477</v>
       </c>
-      <c r="F54" s="41"/>
+      <c r="F54" s="36"/>
       <c r="G54" s="26" t="s">
         <v>2476</v>
       </c>
@@ -9699,15 +9876,15 @@
       </c>
     </row>
     <row r="55" spans="2:8">
-      <c r="B55" s="35"/>
-      <c r="C55" s="35" t="s">
+      <c r="B55" s="37"/>
+      <c r="C55" s="37" t="s">
         <v>2455</v>
       </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="36" t="s">
         <v>2478</v>
       </c>
-      <c r="F55" s="41"/>
+      <c r="F55" s="36"/>
       <c r="G55" s="26" t="s">
         <v>2476</v>
       </c>
@@ -9716,17 +9893,17 @@
       </c>
     </row>
     <row r="56" spans="2:8">
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="37" t="s">
         <v>2458</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="37" t="s">
         <v>2460</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="35" t="s">
+      <c r="D56" s="35"/>
+      <c r="E56" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F56" s="35"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="26" t="s">
         <v>2464</v>
       </c>
@@ -9735,15 +9912,15 @@
       </c>
     </row>
     <row r="57" spans="2:8">
-      <c r="B57" s="35"/>
-      <c r="C57" s="35" t="s">
+      <c r="B57" s="37"/>
+      <c r="C57" s="37" t="s">
         <v>2461</v>
       </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41" t="s">
+      <c r="D57" s="35"/>
+      <c r="E57" s="36" t="s">
         <v>2467</v>
       </c>
-      <c r="F57" s="41"/>
+      <c r="F57" s="36"/>
       <c r="G57" s="26" t="s">
         <v>2464</v>
       </c>
@@ -9752,15 +9929,15 @@
       </c>
     </row>
     <row r="58" spans="2:8">
-      <c r="B58" s="35"/>
-      <c r="C58" s="35" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="37" t="s">
         <v>2494</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41" t="s">
+      <c r="D58" s="35"/>
+      <c r="E58" s="36" t="s">
         <v>2465</v>
       </c>
-      <c r="F58" s="41"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="26" t="s">
         <v>2469</v>
       </c>
@@ -9769,15 +9946,15 @@
       </c>
     </row>
     <row r="59" spans="2:8">
-      <c r="B59" s="35"/>
-      <c r="C59" s="35" t="s">
+      <c r="B59" s="37"/>
+      <c r="C59" s="37" t="s">
         <v>2493</v>
       </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="35" t="s">
+      <c r="D59" s="35"/>
+      <c r="E59" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F59" s="35"/>
+      <c r="F59" s="37"/>
       <c r="G59" s="26" t="s">
         <v>2469</v>
       </c>
@@ -9786,15 +9963,15 @@
       </c>
     </row>
     <row r="60" spans="2:8">
-      <c r="B60" s="35"/>
-      <c r="C60" s="35" t="s">
+      <c r="B60" s="37"/>
+      <c r="C60" s="37" t="s">
         <v>2453</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41" t="s">
+      <c r="D60" s="35"/>
+      <c r="E60" s="36" t="s">
         <v>2466</v>
       </c>
-      <c r="F60" s="41"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="26" t="s">
         <v>2462</v>
       </c>
@@ -9806,14 +9983,14 @@
       <c r="B61" s="26" t="s">
         <v>2498</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="37" t="s">
         <v>2439</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="35" t="s">
+      <c r="D61" s="35"/>
+      <c r="E61" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F61" s="35"/>
+      <c r="F61" s="37"/>
       <c r="G61" s="26" t="s">
         <v>2441</v>
       </c>
@@ -9825,14 +10002,14 @@
       <c r="B62" s="26" t="s">
         <v>2498</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="37" t="s">
         <v>2440</v>
       </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="35" t="s">
+      <c r="D62" s="35"/>
+      <c r="E62" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F62" s="35"/>
+      <c r="F62" s="37"/>
       <c r="G62" s="26" t="s">
         <v>2441</v>
       </c>
@@ -9844,14 +10021,14 @@
       <c r="B63" s="26" t="s">
         <v>2499</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="37" t="s">
         <v>2443</v>
       </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="35" t="s">
+      <c r="D63" s="35"/>
+      <c r="E63" s="37" t="s">
         <v>1297</v>
       </c>
-      <c r="F63" s="35"/>
+      <c r="F63" s="37"/>
       <c r="G63" s="26" t="s">
         <v>2492</v>
       </c>
@@ -9861,19 +10038,26 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="B11:B32"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
     <mergeCell ref="E63:F63"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
@@ -9890,29 +10074,22 @@
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="B11:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
     <mergeCell ref="B49:B55"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B39" r:id="rId1" location="!/" xr:uid="{38811890-98C4-9845-93CC-5B91C47A4CD1}"/>
@@ -9928,16 +10105,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3477D8-B471-B04B-97F4-AA504569317D}">
-  <dimension ref="B1:E29"/>
+  <dimension ref="B1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -10344,6 +10521,244 @@
       </c>
       <c r="E29" t="s">
         <v>2548</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="42" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>2540</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="43" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C34" s="43" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="43" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>2578</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="43" t="s">
+        <v>2579</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D36" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="43" t="s">
+        <v>2580</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D37" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="43" t="s">
+        <v>2581</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>2595</v>
+      </c>
+      <c r="D38" s="43" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="43" t="s">
+        <v>2583</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="43" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D40" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="43" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>2604</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="43" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="43" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>2596</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="43" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="43" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="43" t="s">
+        <v>2590</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>2599</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E46" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="43" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D47" s="43" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="43" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="43" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>2602</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>2582</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>2584</v>
       </c>
     </row>
   </sheetData>
@@ -10352,22 +10767,226 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7551431B-1452-F540-B64E-D84282C97AD9}">
+  <dimension ref="B1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" s="44" t="s">
+        <v>2539</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="B2" s="45" t="s">
+        <v>2577</v>
+      </c>
+      <c r="C2" s="46">
+        <v>0.76591790999999998</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="45" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C3" s="46">
+        <v>-0.27042442999999999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="45" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0.35411946999999999</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="45" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C5" s="46">
+        <v>-0.38453209999999999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="45" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C6" s="46">
+        <v>-0.84601890000000002</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="45" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C7" s="46">
+        <v>0.41995301000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="45" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C8" s="46">
+        <v>0.26451805</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="45" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.51050518</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="45" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C10" s="46">
+        <v>0.73258767999999996</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="45" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1.17449724</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="45" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C12" s="46">
+        <v>1.1646004999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="45" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C13" s="46">
+        <v>0.88290701000000005</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="45" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C14" s="46">
+        <v>-0.79572357000000005</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="45" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C15" s="46">
+        <v>0.46531084</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="45" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C16" s="46">
+        <v>0.70753960999999999</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="45" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C17" s="46">
+        <v>0.79674681999999997</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2622</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CCAC53-F781-314A-AF29-FC30C1FAC9EC}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+    <sheetView topLeftCell="C9" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" style="6"/>
-    <col min="3" max="3" width="20.83203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.7109375" style="6"/>
+    <col min="3" max="3" width="20.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64.33203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="47.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.6640625" style="6"/>
+    <col min="6" max="6" width="64.28515625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -10592,7 +11211,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="34">
+    <row r="17" spans="2:7" ht="17">
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
         <v>2457</v>
@@ -10799,7 +11418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I155"/>
   <sheetViews>
@@ -10807,17 +11426,17 @@
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="14.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="14.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="47.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="61" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="6" customWidth="1"/>
-    <col min="8" max="9" width="14.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="14.140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28">
@@ -15130,7 +15749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3364F59B-A819-194D-AAB3-22CCB8A3CB9E}">
   <dimension ref="A1:B1693"/>
   <sheetViews>
@@ -15140,8 +15759,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="83.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="84.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
